--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACDF/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACDF/15/seed5/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.04109999999999</v>
+        <v>-12.1537</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.923800000000001</v>
+        <v>-8.162999999999998</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.444799999999999</v>
+        <v>-7.553699999999993</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -570,10 +570,10 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.0419</v>
+        <v>-12.3402</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.844699999999991</v>
+        <v>-8.236499999999994</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -627,18 +627,18 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.709</v>
+        <v>13.273</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.55540000000002</v>
+        <v>-21.61160000000001</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-12.3379</v>
+        <v>-12.5849</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -672,13 +672,13 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.4137</v>
+        <v>-12.35509999999999</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>13.62940000000001</v>
+        <v>13.45400000000001</v>
       </c>
     </row>
     <row r="15">
@@ -760,10 +760,10 @@
         <v>-14.32</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.892499999999997</v>
+        <v>-7.863799999999992</v>
       </c>
       <c r="E19" t="n">
-        <v>13.898</v>
+        <v>13.99389999999999</v>
       </c>
     </row>
     <row r="20">
@@ -794,10 +794,10 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.351200000000001</v>
+        <v>-7.320499999999998</v>
       </c>
       <c r="E21" t="n">
-        <v>14.0523</v>
+        <v>13.9716</v>
       </c>
     </row>
     <row r="22">
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-10.88609999999999</v>
+        <v>-11.30449999999999</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
@@ -845,7 +845,7 @@
         <v>-12.7</v>
       </c>
       <c r="D24" t="n">
-        <v>-8.200899999999992</v>
+        <v>-8.221799999999991</v>
       </c>
       <c r="E24" t="n">
         <v>12.16</v>
